--- a/user-data/oda-to-pneumonia-percent-health/oda-to-pneumonia-percent-health.xlsx
+++ b/user-data/oda-to-pneumonia-percent-health/oda-to-pneumonia-percent-health.xlsx
@@ -589,7 +589,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 58</t>
+    <t xml:space="preserve">Source: 57</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 13</t>
